--- a/isitword test/ref/wordorderen_full2.xlsx
+++ b/isitword test/ref/wordorderen_full2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>word_length</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>worddir</t>
         </is>
       </c>
@@ -468,16 +473,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>lenam</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>word/worden0483.png</t>
+          <t>cowok</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>word/worden0513.png</t>
         </is>
       </c>
     </row>
@@ -489,16 +497,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cat</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>word/worden0271.png</t>
+          <t>gorilla</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>word/worden0961.png</t>
         </is>
       </c>
     </row>
@@ -507,19 +518,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bua</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>word/worden0033.png</t>
+          <t>ipllwo</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>word/worden0632.png</t>
         </is>
       </c>
     </row>
@@ -528,19 +542,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rlldi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>word/worden0062.png</t>
+          <t>biageka</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>word/worden0893.png</t>
         </is>
       </c>
     </row>
@@ -552,16 +569,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>giandto</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>word/worden0313.png</t>
+          <t>ardana</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>word/worden0643.png</t>
         </is>
       </c>
     </row>
@@ -570,19 +590,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pilder</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>word/worden0113.png</t>
+          <t>hat</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>word/worden0071.png</t>
         </is>
       </c>
     </row>
@@ -591,19 +614,22 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>comb</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>word/worden0681.png</t>
+          <t>tleb</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>word/worden0312.png</t>
         </is>
       </c>
     </row>
@@ -612,19 +638,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bcat</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>word/worden0073.png</t>
+          <t>omlne</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>word/worden0482.png</t>
         </is>
       </c>
     </row>
@@ -633,21 +662,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jug</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>word/wordenc401.png</t>
+          <t>utodn</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>word/worden0462.png</t>
         </is>
       </c>
     </row>
@@ -659,16 +689,19 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>biwol</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>word/worden0263.png</t>
+          <t>dulqine</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>word/worden0933.png</t>
         </is>
       </c>
     </row>
@@ -677,19 +710,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>word/worden0821.png</t>
+          <t>frefaig</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>word/worden0942.png</t>
         </is>
       </c>
     </row>
@@ -700,19 +736,20 @@
       <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
+      <c r="C13" t="n">
+        <v>11</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>fgit</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>word/worden75a2.png</t>
+          <t>jgu</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>word/worden0112.png</t>
         </is>
       </c>
     </row>
@@ -724,16 +761,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>glasses</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>word/worden0101.png</t>
+          <t>pen</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>word/worden0061.png</t>
         </is>
       </c>
     </row>
@@ -745,16 +785,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>drill</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>word/worden0061.png</t>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>word/worden0081.png</t>
         </is>
       </c>
     </row>
@@ -763,19 +806,22 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ochrna</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>word/worden0502.png</t>
+          <t>perfume</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>word/worden0881.png</t>
         </is>
       </c>
     </row>
@@ -784,19 +830,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>candy</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>word/worden0411.png</t>
+          <t>aht</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>word/worden0072.png</t>
         </is>
       </c>
     </row>
@@ -808,16 +857,19 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>gorilla</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>word/worden0891.png</t>
+          <t>shrimp</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>word/worden0681.png</t>
         </is>
       </c>
     </row>
@@ -826,19 +878,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>saetut</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>word/worden0082.png</t>
+          <t>lenam</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>word/worden0483.png</t>
         </is>
       </c>
     </row>
@@ -849,19 +904,20 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
+      <c r="C20" t="n">
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>golk</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>word/worden75a3.png</t>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>word/worden0033.png</t>
         </is>
       </c>
     </row>
@@ -870,21 +926,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>93</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>bwo</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>word/wordenc202.png</t>
+          <t>dolphin</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>word/worden0931.png</t>
         </is>
       </c>
     </row>
@@ -895,19 +952,20 @@
       <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
+      <c r="C22" t="n">
+        <v>88</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ipsmrh</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>word/worden71a2.png</t>
+          <t>ermpfeu</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>word/worden0882.png</t>
         </is>
       </c>
     </row>
@@ -916,19 +974,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>eapr</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>word/worden0302.png</t>
+          <t>drill</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>word/worden0411.png</t>
         </is>
       </c>
     </row>
@@ -939,19 +1000,20 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
+      <c r="C24" t="n">
+        <v>89</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>bow</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>word/wordenc201.png</t>
+          <t>bicycle</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>word/worden0891.png</t>
         </is>
       </c>
     </row>
@@ -963,16 +1025,19 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>sbu</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>word/worden0032.png</t>
+          <t>eapr</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>word/worden0232.png</t>
         </is>
       </c>
     </row>
@@ -981,19 +1046,22 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>eesrar</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>word/worden0702.png</t>
+          <t>anchor</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>word/worden0641.png</t>
         </is>
       </c>
     </row>
@@ -1002,21 +1070,22 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>shrimp</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>word/worden71a1.png</t>
+          <t>baul</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>word/worden0303.png</t>
         </is>
       </c>
     </row>
@@ -1027,19 +1096,20 @@
       <c r="B28" t="n">
         <v>3</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
+      <c r="C28" t="n">
+        <v>22</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>podlana</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>word/worden23a3.png</t>
+          <t>bcat</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>word/worden0223.png</t>
         </is>
       </c>
     </row>
@@ -1048,19 +1118,22 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>het</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>word/worden0643.png</t>
+          <t>giraffe</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>word/worden0941.png</t>
         </is>
       </c>
     </row>
@@ -1069,19 +1142,22 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>cowky</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>word/worden0413.png</t>
+          <t>pihdnlo</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>word/worden0932.png</t>
         </is>
       </c>
     </row>
@@ -1090,19 +1166,22 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>denog</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>word/worden0523.png</t>
+          <t>cookie</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>word/worden0711.png</t>
         </is>
       </c>
     </row>
@@ -1111,21 +1190,22 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>perfume</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>word/worden23a1.png</t>
+          <t>syspem</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>word/worden0703.png</t>
         </is>
       </c>
     </row>
@@ -1137,16 +1217,19 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>syspem</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>word/worden0823.png</t>
+          <t>pewo</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>word/worden0233.png</t>
         </is>
       </c>
     </row>
@@ -1155,19 +1238,22 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>gerep</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>word/worden0872.png</t>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>word/worden0013.png</t>
         </is>
       </c>
     </row>
@@ -1179,16 +1265,19 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>kiooce</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>word/worden0882.png</t>
+          <t>okob</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>word/worden0222.png</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1289,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>raccoon</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>word/worden0611.png</t>
+          <t>belt</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>word/worden0311.png</t>
         </is>
       </c>
     </row>
@@ -1221,16 +1313,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ipllwo</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>word/worden0112.png</t>
+          <t>swa</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>word/worden0082.png</t>
         </is>
       </c>
     </row>
@@ -1239,19 +1334,22 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>epn</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>word/worden0422.png</t>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>word/worden0301.png</t>
         </is>
       </c>
     </row>
@@ -1260,19 +1358,22 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>44</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>utodn</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>word/worden0442.png</t>
+          <t>candy</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>word/worden0441.png</t>
         </is>
       </c>
     </row>
@@ -1281,21 +1382,22 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>44</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gift</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>word/worden75a1.png</t>
+          <t>ncyad</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>word/worden0442.png</t>
         </is>
       </c>
     </row>
@@ -1304,19 +1406,22 @@
         <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>pear</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>word/worden0301.png</t>
+          <t>posocyt</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>word/worden0873.png</t>
         </is>
       </c>
     </row>
@@ -1327,19 +1432,20 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
+      <c r="C42" t="n">
+        <v>52</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>belt</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>word/wordend101.png</t>
+          <t>grape</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>word/worden0521.png</t>
         </is>
       </c>
     </row>
@@ -1348,19 +1454,22 @@
         <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>hcocu</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>word/worden0662.png</t>
+          <t>juq</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>word/worden0113.png</t>
         </is>
       </c>
     </row>
@@ -1371,19 +1480,20 @@
       <c r="B44" t="n">
         <v>2</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
+      <c r="C44" t="n">
+        <v>3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jgu</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>word/wordenc402.png</t>
+          <t>atc</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>word/worden0032.png</t>
         </is>
       </c>
     </row>
@@ -1392,19 +1502,22 @@
         <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>genitke</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>word/worden0893.png</t>
+          <t>staple</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>word/worden0751.png</t>
         </is>
       </c>
     </row>
@@ -1413,19 +1526,22 @@
         <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cane</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>word/worden0511.png</t>
+          <t>irallog</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>word/worden0962.png</t>
         </is>
       </c>
     </row>
@@ -1437,16 +1553,19 @@
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>cino</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>word/worden0513.png</t>
+          <t>sfepto</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>word/worden0753.png</t>
         </is>
       </c>
     </row>
@@ -1455,19 +1574,22 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>omlne</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>word/worden0482.png</t>
+          <t>raccoon</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>word/worden0951.png</t>
         </is>
       </c>
     </row>
@@ -1476,19 +1598,22 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>word/worden0071.png</t>
+          <t>druto</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>word/worden0413.png</t>
         </is>
       </c>
     </row>
@@ -1504,10 +1629,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>pillow</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
+          <t>jug</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>word/worden0111.png</t>
         </is>
@@ -1521,16 +1649,19 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>eraser</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>word/worden0701.png</t>
+          <t>cane</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>word/worden0241.png</t>
         </is>
       </c>
     </row>
@@ -1542,16 +1673,19 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>giraffe</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>word/worden0311.png</t>
+          <t>statue</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>word/worden0611.png</t>
         </is>
       </c>
     </row>
@@ -1560,19 +1694,22 @@
         <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
+        <v>82</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>glasses</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>7</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>okob</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>word/worden0072.png</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>word/worden0821.png</t>
         </is>
       </c>
     </row>
@@ -1584,16 +1721,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>accnoor</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>word/worden0612.png</t>
+          <t>ochrna</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>word/worden0642.png</t>
         </is>
       </c>
     </row>
@@ -1602,19 +1742,22 @@
         <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ced</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>word/worden0273.png</t>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>word/worden0221.png</t>
         </is>
       </c>
     </row>
@@ -1630,10 +1773,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ncyad</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
+          <t>rlldi</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>word/worden0412.png</t>
         </is>
@@ -1644,19 +1790,22 @@
         <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>bus</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>word/worden0031.png</t>
+          <t>ipsmrh</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>6</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>word/worden0682.png</t>
         </is>
       </c>
     </row>
@@ -1665,19 +1814,22 @@
         <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>grape</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>word/worden0871.png</t>
+          <t>golk</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>word/worden0283.png</t>
         </is>
       </c>
     </row>
@@ -1686,21 +1838,22 @@
         <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>51</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>slaimy</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>word/worden71a3.png</t>
+          <t>hcocu</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>word/worden0512.png</t>
         </is>
       </c>
     </row>
@@ -1712,16 +1865,19 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gnyms</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>word/worden0873.png</t>
+          <t>eczera</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>word/worden0663.png</t>
         </is>
       </c>
     </row>
@@ -1733,16 +1889,19 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>glianca</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>word/worden0103.png</t>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>word/worden0823.png</t>
         </is>
       </c>
     </row>
@@ -1754,16 +1913,19 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>pen</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>word/worden0421.png</t>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>word/worden0101.png</t>
         </is>
       </c>
     </row>
@@ -1772,19 +1934,22 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>atc</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>word/worden0272.png</t>
+          <t>dorat</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>word/worden0463.png</t>
         </is>
       </c>
     </row>
@@ -1793,21 +1958,22 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>swa</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>word/wordenc102.png</t>
+          <t>bow</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>word/worden0091.png</t>
         </is>
       </c>
     </row>
@@ -1819,16 +1985,19 @@
         <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>baul</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>word/worden0933.png</t>
+          <t>podlana</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>word/worden0883.png</t>
         </is>
       </c>
     </row>
@@ -1837,19 +2006,22 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>dulqine</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>word/worden0283.png</t>
+          <t>couch</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>word/worden0511.png</t>
         </is>
       </c>
     </row>
@@ -1858,19 +2030,22 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>altspe</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>word/worden0952.png</t>
+          <t>denog</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>word/worden0503.png</t>
         </is>
       </c>
     </row>
@@ -1882,16 +2057,19 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>dsiay</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>word/worden0522.png</t>
+          <t>sealsgs</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>word/worden0822.png</t>
         </is>
       </c>
     </row>
@@ -1902,19 +2080,20 @@
       <c r="B69" t="n">
         <v>3</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
+      <c r="C69" t="n">
+        <v>95</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>suw</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>word/wordenc103.png</t>
+          <t>rusarin</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>word/worden0953.png</t>
         </is>
       </c>
     </row>
@@ -1923,19 +2102,22 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>otab</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>word/worden0932.png</t>
+          <t>boik</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>word/worden0313.png</t>
         </is>
       </c>
     </row>
@@ -1947,16 +2129,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>anchor</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>word/worden0501.png</t>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>word/worden0031.png</t>
         </is>
       </c>
     </row>
@@ -1965,19 +2150,22 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>caen</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>word/worden0512.png</t>
+          <t>donut</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>word/worden0461.png</t>
         </is>
       </c>
     </row>
@@ -1989,16 +2177,19 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rusarin</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>word/worden0613.png</t>
+          <t>het</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>word/worden0073.png</t>
         </is>
       </c>
     </row>
@@ -2007,19 +2198,22 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>boat</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>word/worden0931.png</t>
+          <t>accnoor</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>7</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>word/worden0952.png</t>
         </is>
       </c>
     </row>
@@ -2028,19 +2222,22 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>frefaig</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>word/worden0312.png</t>
+          <t>pao</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>word/worden0063.png</t>
         </is>
       </c>
     </row>
@@ -2049,19 +2246,22 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>gpones</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>word/worden0822.png</t>
+          <t>gnyms</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>word/worden0523.png</t>
         </is>
       </c>
     </row>
@@ -2073,16 +2273,19 @@
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vrue</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>word/worden0633.png</t>
+          <t>czalka</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>word/worden0713.png</t>
         </is>
       </c>
     </row>
@@ -2093,19 +2296,20 @@
       <c r="B78" t="n">
         <v>3</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
+      <c r="C78" t="n">
+        <v>63</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>boik</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>word/wordend103.png</t>
+          <t>pilder</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>word/worden0633.png</t>
         </is>
       </c>
     </row>
@@ -2114,19 +2318,22 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>comd</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>word/worden0683.png</t>
+          <t>pillow</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>word/worden0631.png</t>
         </is>
       </c>
     </row>
@@ -2135,19 +2342,22 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>irallog</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>word/worden0892.png</t>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>word/worden0281.png</t>
         </is>
       </c>
     </row>
@@ -2156,19 +2366,22 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>cbmo</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>word/worden0682.png</t>
+          <t>giandto</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>7</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>word/worden0943.png</t>
         </is>
       </c>
     </row>
@@ -2177,19 +2390,22 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>dolphin</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>word/worden0281.png</t>
+          <t>suw</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>word/worden0083.png</t>
         </is>
       </c>
     </row>
@@ -2201,16 +2417,19 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>donut</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>word/worden0441.png</t>
+          <t>peacock</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>7</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>word/worden0871.png</t>
         </is>
       </c>
     </row>
@@ -2222,16 +2441,19 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>pihdnlo</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>word/worden0282.png</t>
+          <t>caen</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>word/worden0242.png</t>
         </is>
       </c>
     </row>
@@ -2240,19 +2462,22 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>hat</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>word/worden0641.png</t>
+          <t>saetut</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>word/worden0612.png</t>
         </is>
       </c>
     </row>
@@ -2261,19 +2486,22 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>strufa</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>word/worden0083.png</t>
+          <t>gerep</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>word/worden0522.png</t>
         </is>
       </c>
     </row>
@@ -2282,19 +2510,22 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>accpoke</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>word/worden0222.png</t>
+          <t>brick</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>word/worden0421.png</t>
         </is>
       </c>
     </row>
@@ -2306,16 +2537,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>celiycb</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>word/worden0242.png</t>
+          <t>bwo</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>word/worden0092.png</t>
         </is>
       </c>
     </row>
@@ -2327,16 +2561,19 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>sealsgs</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>word/worden0102.png</t>
+          <t>epn</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>word/worden0062.png</t>
         </is>
       </c>
     </row>
@@ -2345,19 +2582,22 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>66</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>cowok</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>word/worden0663.png</t>
+          <t>eraser</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>word/worden0661.png</t>
         </is>
       </c>
     </row>
@@ -2369,16 +2609,19 @@
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>aht</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>word/worden0642.png</t>
+          <t>otab</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>word/worden0302.png</t>
         </is>
       </c>
     </row>
@@ -2387,19 +2630,22 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>cookie</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>word/worden0881.png</t>
+          <t>biwol</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>word/worden0423.png</t>
         </is>
       </c>
     </row>
@@ -2408,19 +2654,22 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>eczera</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>word/worden0703.png</t>
+          <t>dsiay</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>word/worden0502.png</t>
         </is>
       </c>
     </row>
@@ -2429,19 +2678,22 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>dorat</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>word/worden0443.png</t>
+          <t>lemon</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>word/worden0481.png</t>
         </is>
       </c>
     </row>
@@ -2450,21 +2702,22 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>26</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>saw</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>word/wordenc101.png</t>
+          <t>asve</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>word/worden0262.png</t>
         </is>
       </c>
     </row>
@@ -2473,21 +2726,22 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>27</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>bok</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>word/wordenc303.png</t>
+          <t>cbmo</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>word/worden0272.png</t>
         </is>
       </c>
     </row>
@@ -2496,21 +2750,22 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>tleb</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>word/wordend102.png</t>
+          <t>bok</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>word/worden0103.png</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2776,20 @@
       <c r="B98" t="n">
         <v>3</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
+      <c r="C98" t="n">
+        <v>61</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>juq</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>word/wordenc403.png</t>
+          <t>strufa</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>word/worden0613.png</t>
         </is>
       </c>
     </row>
@@ -2545,16 +2801,19 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>peacock</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>word/worden0221.png</t>
+          <t>comb</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>word/worden0271.png</t>
         </is>
       </c>
     </row>
@@ -2566,16 +2825,19 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>sfepto</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>word/worden0953.png</t>
+          <t>cino</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>word/worden0243.png</t>
         </is>
       </c>
     </row>
@@ -2584,19 +2846,22 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>couch</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>word/worden0661.png</t>
+          <t>vrue</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>word/worden0263.png</t>
         </is>
       </c>
     </row>
@@ -2607,19 +2872,20 @@
       <c r="B102" t="n">
         <v>2</v>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
+      <c r="C102" t="n">
+        <v>28</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>tba</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>word/wordenc302.png</t>
+          <t>fgit</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>word/worden0282.png</t>
         </is>
       </c>
     </row>
@@ -2631,16 +2897,19 @@
         <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>posocyt</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>word/worden0223.png</t>
+          <t>bur</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>word/worden0093.png</t>
         </is>
       </c>
     </row>
@@ -2649,21 +2918,22 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>70</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>word/wordenc301.png</t>
+          <t>gpones</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>word/worden0702.png</t>
         </is>
       </c>
     </row>
@@ -2672,19 +2942,22 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>biageka</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>word/worden0243.png</t>
+          <t>eesrar</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>word/worden0662.png</t>
         </is>
       </c>
     </row>
@@ -2693,19 +2966,22 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>daisy</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>word/worden0521.png</t>
+          <t>rcbik</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>5</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>word/worden0422.png</t>
         </is>
       </c>
     </row>
@@ -2714,19 +2990,22 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>bicycle</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>word/worden0241.png</t>
+          <t>celiycb</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>7</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>word/worden0892.png</t>
         </is>
       </c>
     </row>
@@ -2735,19 +3014,22 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>czalka</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>word/worden0883.png</t>
+          <t>accpoke</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>word/worden0872.png</t>
         </is>
       </c>
     </row>
@@ -2756,19 +3038,22 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>26</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>rcbik</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>word/worden0262.png</t>
+          <t>vase</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>word/worden0261.png</t>
         </is>
       </c>
     </row>
@@ -2777,19 +3062,22 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>asve</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>word/worden0632.png</t>
+          <t>daisy</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>5</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>word/worden0501.png</t>
         </is>
       </c>
     </row>
@@ -2801,16 +3089,19 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vase</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>word/worden0631.png</t>
+          <t>bus</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>word/worden0011.png</t>
         </is>
       </c>
     </row>
@@ -2822,16 +3113,19 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>pewo</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>word/worden0303.png</t>
+          <t>slaimy</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>word/worden0683.png</t>
         </is>
       </c>
     </row>
@@ -2840,19 +3134,22 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>statue</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>word/worden0081.png</t>
+          <t>sbu</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>word/worden0012.png</t>
         </is>
       </c>
     </row>
@@ -2861,19 +3158,22 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>brick</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>word/worden0261.png</t>
+          <t>kiooce</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>6</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>word/worden0712.png</t>
         </is>
       </c>
     </row>
@@ -2885,16 +3185,19 @@
         <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>pao</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>word/worden0423.png</t>
+          <t>cowky</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>5</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>word/worden0443.png</t>
         </is>
       </c>
     </row>
@@ -2903,19 +3206,22 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>lemon</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>word/worden0481.png</t>
+          <t>altspe</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>6</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>word/worden0752.png</t>
         </is>
       </c>
     </row>
@@ -2924,21 +3230,22 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>96</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ermpfeu</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>word/worden23a2.png</t>
+          <t>genitke</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>7</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>word/worden0963.png</t>
         </is>
       </c>
     </row>
@@ -2947,19 +3254,22 @@
         <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ardana</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>word/worden0503.png</t>
+          <t>sponge</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>6</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>word/worden0701.png</t>
         </is>
       </c>
     </row>
@@ -2968,19 +3278,22 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>staple</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>word/worden0951.png</t>
+          <t>tba</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>word/worden0102.png</t>
         </is>
       </c>
     </row>
@@ -2992,16 +3305,19 @@
         <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>druto</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>word/worden0063.png</t>
+          <t>comd</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>word/worden0273.png</t>
         </is>
       </c>
     </row>
@@ -3010,21 +3326,22 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>23</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>bur</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>word/wordenc203.png</t>
+          <t>pear</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>word/worden0231.png</t>
         </is>
       </c>
     </row>
